--- a/biology/Botanique/Diplotropis_purpurea/Diplotropis_purpurea.xlsx
+++ b/biology/Botanique/Diplotropis_purpurea/Diplotropis_purpurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cœur dehors, Diplotropis purpurea, est un arbre tropical de la famille des Fabaceae présent du nord du Brésil et sur le plateau des Guyanes.
-Il se rencontre sporadiquement, de préférence en terrains frais, mais non marécageux. C'est une essence de lumière que l'on trouve en forêt primaire ou secondaire[2].
+Il se rencontre sporadiquement, de préférence en terrains frais, mais non marécageux. C'est une essence de lumière que l'on trouve en forêt primaire ou secondaire.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Liste des variétés et formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (11 septembre 2013)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (11 septembre 2013) :
 variété Diplotropis purpurea var. leptophylla
 variété Diplotropis purpurea var. purpurea
-Selon The Plant List            (11 septembre 2013)[1] :
+Selon The Plant List            (11 septembre 2013) :
 variété Diplotropis purpurea var. leptophylla (Kleinhoonte) Amshoff
-Selon Tropicos                                           (11 septembre 2013)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 septembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Diplotropis purpurea var. belemensis (Ducke) Amshoff
 variété Diplotropis purpurea var. belemnensis (Ducke) Amshoff
 variété Diplotropis purpurea var. brasiliensis (Tul.) Amshoff
